--- a/data/monthly_lines.xlsx
+++ b/data/monthly_lines.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickoceallaigh/Programming/Python/domestic_bid/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DBFBB4-1BDB-0542-BC46-76947C271503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEC7A44-7B6A-714F-885E-DC4790326048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18760" yWindow="1420" windowWidth="32160" windowHeight="19060" xr2:uid="{1A047E46-F951-604B-9402-E726DF6A6723}"/>
+    <workbookView xWindow="17300" yWindow="5540" windowWidth="32160" windowHeight="19060" xr2:uid="{1A047E46-F951-604B-9402-E726DF6A6723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Int Airport Codes" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Line</t>
   </si>
@@ -45,13 +46,136 @@
   </si>
   <si>
     <t>Crew</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>MGA</t>
+  </si>
+  <si>
+    <t>TGU</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>MTY</t>
+  </si>
+  <si>
+    <t>BJX</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>Managua, Nicaragua</t>
+  </si>
+  <si>
+    <t>Tegucigalpa, Honduras</t>
+  </si>
+  <si>
+    <t>San Pedro Sula, Honduras</t>
+  </si>
+  <si>
+    <t>Monterrey, Mexico</t>
+  </si>
+  <si>
+    <t>Guanajuato, Mexico</t>
+  </si>
+  <si>
+    <t>Mexico City, Mexico</t>
+  </si>
+  <si>
+    <t>NAS</t>
+  </si>
+  <si>
+    <t>Nassau, Bahamas</t>
+  </si>
+  <si>
+    <t>MBJ</t>
+  </si>
+  <si>
+    <t>Montego Bay, Jamaica</t>
+  </si>
+  <si>
+    <t>SAL</t>
+  </si>
+  <si>
+    <t>San Salvador, El Salvador</t>
+  </si>
+  <si>
+    <t>SJO</t>
+  </si>
+  <si>
+    <t>San Jose, Costa Rica</t>
+  </si>
+  <si>
+    <t>LIR</t>
+  </si>
+  <si>
+    <t>Liberia, Costa Rica</t>
+  </si>
+  <si>
+    <t>GDL</t>
+  </si>
+  <si>
+    <t>Guadalajara, Mexico</t>
+  </si>
+  <si>
+    <t>GUA</t>
+  </si>
+  <si>
+    <t>Guatemala City, Guatemala</t>
+  </si>
+  <si>
+    <t>CUN</t>
+  </si>
+  <si>
+    <t>SJD</t>
+  </si>
+  <si>
+    <t>Los Cabos, Mexico</t>
+  </si>
+  <si>
+    <t>Cancún, Mexico</t>
+  </si>
+  <si>
+    <t>PVR</t>
+  </si>
+  <si>
+    <t>Puerto Vallarta, Mexico</t>
+  </si>
+  <si>
+    <t>BZE</t>
+  </si>
+  <si>
+    <t>Belize, Belize</t>
+  </si>
+  <si>
+    <t>CZM</t>
+  </si>
+  <si>
+    <t>Cozumel, Mexico</t>
+  </si>
+  <si>
+    <t>PTY</t>
+  </si>
+  <si>
+    <t>Panama City, Panama</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +186,13 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -96,6 +227,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,20 +548,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC86EA76-5673-274A-ABDE-F858CC412284}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -437,8 +576,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -451,8 +593,11 @@
       <c r="D2" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -465,8 +610,11 @@
       <c r="D3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -479,8 +627,11 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -493,8 +644,11 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -507,8 +661,11 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>11</v>
       </c>
@@ -521,8 +678,11 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>12</v>
       </c>
@@ -535,8 +695,11 @@
       <c r="D8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>13</v>
       </c>
@@ -549,8 +712,11 @@
       <c r="D9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>14</v>
       </c>
@@ -563,8 +729,11 @@
       <c r="D10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>15</v>
       </c>
@@ -577,8 +746,11 @@
       <c r="D11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>17</v>
       </c>
@@ -591,22 +763,3137 @@
       <c r="D12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3">
-        <v>69.05</v>
+        <v>66.349999999999994</v>
       </c>
       <c r="C13" s="3">
-        <v>97.1</v>
+        <v>94.1</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>70.459999999999994</v>
+      </c>
+      <c r="C14" s="3">
+        <v>117.2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <v>70.260000000000005</v>
+      </c>
+      <c r="C15" s="3">
+        <v>98.06</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3">
+        <v>67.36</v>
+      </c>
+      <c r="C16" s="3">
+        <v>85.04</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="C17" s="3">
+        <v>115.05</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>67.27</v>
+      </c>
+      <c r="C18" s="3">
+        <v>100.58</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3">
+        <v>70.48</v>
+      </c>
+      <c r="C19" s="3">
+        <v>108.24</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>36</v>
+      </c>
+      <c r="B20" s="3">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="C20" s="3">
+        <v>97.4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>41</v>
+      </c>
+      <c r="B21" s="3">
+        <v>72.22</v>
+      </c>
+      <c r="C21" s="3">
+        <v>127.5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3">
+        <v>65.55</v>
+      </c>
+      <c r="C22" s="3">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43</v>
+      </c>
+      <c r="B23" s="3">
+        <v>68.22</v>
+      </c>
+      <c r="C23" s="3">
+        <v>102.36</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44</v>
+      </c>
+      <c r="B24" s="3">
+        <v>75.2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>112</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>47</v>
+      </c>
+      <c r="B25" s="3">
+        <v>73.44</v>
+      </c>
+      <c r="C25" s="3">
+        <v>112</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>48</v>
+      </c>
+      <c r="B26" s="3">
+        <v>73.44</v>
+      </c>
+      <c r="C26" s="3">
+        <v>112</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3">
+        <v>73.17</v>
+      </c>
+      <c r="C27" s="3">
+        <v>99.45</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="C28" s="3">
+        <v>103.46</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3">
+        <v>74.33</v>
+      </c>
+      <c r="C29" s="3">
+        <v>115.48</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3">
+        <v>74.33</v>
+      </c>
+      <c r="C30" s="3">
+        <v>115.48</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>58</v>
+      </c>
+      <c r="B31" s="3">
+        <v>69.540000000000006</v>
+      </c>
+      <c r="C31" s="3">
+        <v>90.45</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>59</v>
+      </c>
+      <c r="B32" s="3">
+        <v>69.540000000000006</v>
+      </c>
+      <c r="C32" s="3">
+        <v>90.45</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>60</v>
+      </c>
+      <c r="B33" s="3">
+        <v>69.540000000000006</v>
+      </c>
+      <c r="C33" s="3">
+        <v>90.45</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>61</v>
+      </c>
+      <c r="B34" s="3">
+        <v>67.31</v>
+      </c>
+      <c r="C34" s="3">
+        <v>221.17</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>62</v>
+      </c>
+      <c r="B35" s="3">
+        <v>67.31</v>
+      </c>
+      <c r="C35" s="3">
+        <v>200.45</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>65</v>
+      </c>
+      <c r="B36" s="3">
+        <v>72.17</v>
+      </c>
+      <c r="C36" s="3">
+        <v>202.4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>66</v>
+      </c>
+      <c r="B37" s="3">
+        <v>65.12</v>
+      </c>
+      <c r="C37" s="3">
+        <v>204.09</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>67</v>
+      </c>
+      <c r="B38" s="3">
+        <v>64.41</v>
+      </c>
+      <c r="C38" s="3">
+        <v>211</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>68</v>
+      </c>
+      <c r="B39" s="3">
+        <v>67.42</v>
+      </c>
+      <c r="C39" s="3">
+        <v>170</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>69</v>
+      </c>
+      <c r="B40" s="3">
+        <v>64.17</v>
+      </c>
+      <c r="C40" s="3">
+        <v>143.5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>70</v>
+      </c>
+      <c r="B41" s="3">
+        <v>70.28</v>
+      </c>
+      <c r="C41" s="3">
+        <v>206.03</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>71</v>
+      </c>
+      <c r="B42" s="3">
+        <v>71.38</v>
+      </c>
+      <c r="C42" s="3">
+        <v>134.29</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>73</v>
+      </c>
+      <c r="B43" s="3">
+        <v>70.44</v>
+      </c>
+      <c r="C43" s="3">
+        <v>133.56</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>74</v>
+      </c>
+      <c r="B44" s="3">
+        <v>70.44</v>
+      </c>
+      <c r="C44" s="3">
+        <v>133.56</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>75</v>
+      </c>
+      <c r="B45" s="3">
+        <v>73.569999999999993</v>
+      </c>
+      <c r="C45" s="3">
+        <v>170.5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>76</v>
+      </c>
+      <c r="B46" s="3">
+        <v>70.44</v>
+      </c>
+      <c r="C46" s="3">
+        <v>133.56</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>77</v>
+      </c>
+      <c r="B47" s="3">
+        <v>66.22</v>
+      </c>
+      <c r="C47" s="3">
+        <v>208.37</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>83</v>
+      </c>
+      <c r="B48" s="3">
+        <v>65.5</v>
+      </c>
+      <c r="C48" s="3">
+        <v>203.28</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>84</v>
+      </c>
+      <c r="B49" s="3">
+        <v>69.06</v>
+      </c>
+      <c r="C49" s="3">
+        <v>251.59</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>86</v>
+      </c>
+      <c r="B50" s="3">
+        <v>69.180000000000007</v>
+      </c>
+      <c r="C50" s="3">
+        <v>221.17</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>87</v>
+      </c>
+      <c r="B51" s="3">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="C51" s="3">
+        <v>231.18</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>88</v>
+      </c>
+      <c r="B52" s="3">
+        <v>66.47</v>
+      </c>
+      <c r="C52" s="3">
+        <v>228.56</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>89</v>
+      </c>
+      <c r="B53" s="3">
+        <v>68.06</v>
+      </c>
+      <c r="C53" s="3">
+        <v>230.45</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>90</v>
+      </c>
+      <c r="B54" s="3">
+        <v>64.3</v>
+      </c>
+      <c r="C54" s="3">
+        <v>227.37</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>92</v>
+      </c>
+      <c r="B55" s="3">
+        <v>66.069999999999993</v>
+      </c>
+      <c r="C55" s="3">
+        <v>228.38</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>93</v>
+      </c>
+      <c r="B56" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="C56" s="3">
+        <v>228.46</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>94</v>
+      </c>
+      <c r="B57" s="3">
+        <v>66.069999999999993</v>
+      </c>
+      <c r="C57" s="3">
+        <v>228.38</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>95</v>
+      </c>
+      <c r="B58" s="3">
+        <v>64.08</v>
+      </c>
+      <c r="C58" s="3">
+        <v>223</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>96</v>
+      </c>
+      <c r="B59" s="3">
+        <v>71.53</v>
+      </c>
+      <c r="C59" s="3">
+        <v>230.59</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>97</v>
+      </c>
+      <c r="B60" s="3">
+        <v>72.36</v>
+      </c>
+      <c r="C60" s="3">
+        <v>218.44</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>98</v>
+      </c>
+      <c r="B61" s="3">
+        <v>72.05</v>
+      </c>
+      <c r="C61" s="3">
+        <v>225.08</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>100</v>
+      </c>
+      <c r="B62" s="3">
+        <v>65.22</v>
+      </c>
+      <c r="C62" s="3">
+        <v>234.04</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>101</v>
+      </c>
+      <c r="B63" s="3">
+        <v>68.09</v>
+      </c>
+      <c r="C63" s="3">
+        <v>221.31</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>102</v>
+      </c>
+      <c r="B64" s="3">
+        <v>73.27</v>
+      </c>
+      <c r="C64" s="3">
+        <v>231.31</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>103</v>
+      </c>
+      <c r="B65" s="3">
+        <v>67.28</v>
+      </c>
+      <c r="C65" s="3">
+        <v>212.44</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>104</v>
+      </c>
+      <c r="B66" s="3">
+        <v>65.58</v>
+      </c>
+      <c r="C66" s="3">
+        <v>224.42</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>105</v>
+      </c>
+      <c r="B67" s="3">
+        <v>67.19</v>
+      </c>
+      <c r="C67" s="3">
+        <v>242.49</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>106</v>
+      </c>
+      <c r="B68" s="3">
+        <v>65.42</v>
+      </c>
+      <c r="C68" s="3">
+        <v>204.26</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>107</v>
+      </c>
+      <c r="B69" s="3">
+        <v>64.45</v>
+      </c>
+      <c r="C69" s="3">
+        <v>224.09</v>
+      </c>
+      <c r="D69" s="1">
+        <v>3</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>108</v>
+      </c>
+      <c r="B70" s="3">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="C70" s="3">
+        <v>220.19</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>111</v>
+      </c>
+      <c r="B71" s="3">
+        <v>67.319999999999993</v>
+      </c>
+      <c r="C71" s="3">
+        <v>177.02</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>112</v>
+      </c>
+      <c r="B72" s="3">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="C72" s="3">
+        <v>224.24</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>113</v>
+      </c>
+      <c r="B73" s="3">
+        <v>72.150000000000006</v>
+      </c>
+      <c r="C73" s="3">
+        <v>205.56</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>114</v>
+      </c>
+      <c r="B74" s="3">
+        <v>73.09</v>
+      </c>
+      <c r="C74" s="3">
+        <v>223.21</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>115</v>
+      </c>
+      <c r="B75" s="3">
+        <v>76.52</v>
+      </c>
+      <c r="C75" s="3">
+        <v>226.5</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>116</v>
+      </c>
+      <c r="B76" s="3">
+        <v>72.349999999999994</v>
+      </c>
+      <c r="C76" s="3">
+        <v>238.35</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>117</v>
+      </c>
+      <c r="B77" s="3">
+        <v>65.5</v>
+      </c>
+      <c r="C77" s="3">
+        <v>218.12</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>118</v>
+      </c>
+      <c r="B78" s="3">
+        <v>77.459999999999994</v>
+      </c>
+      <c r="C78" s="3">
+        <v>250.37</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>119</v>
+      </c>
+      <c r="B79" s="3">
+        <v>75.47</v>
+      </c>
+      <c r="C79" s="3">
+        <v>255.34</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>120</v>
+      </c>
+      <c r="B80" s="3">
+        <v>67.14</v>
+      </c>
+      <c r="C80" s="3">
+        <v>248.12</v>
+      </c>
+      <c r="D80" s="1">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>121</v>
+      </c>
+      <c r="B81" s="3">
+        <v>67.28</v>
+      </c>
+      <c r="C81" s="3">
+        <v>245.46</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>122</v>
+      </c>
+      <c r="B82" s="3">
+        <v>68.150000000000006</v>
+      </c>
+      <c r="C82" s="3">
+        <v>279.22000000000003</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>123</v>
+      </c>
+      <c r="B83" s="3">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="C83" s="3">
+        <v>239.36</v>
+      </c>
+      <c r="D83" s="1">
+        <v>3</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>124</v>
+      </c>
+      <c r="B84" s="3">
+        <v>65.05</v>
+      </c>
+      <c r="C84" s="3">
+        <v>216.32</v>
+      </c>
+      <c r="D84" s="1">
+        <v>3</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>125</v>
+      </c>
+      <c r="B85" s="3">
+        <v>64.53</v>
+      </c>
+      <c r="C85" s="3">
+        <v>243.22</v>
+      </c>
+      <c r="D85" s="1">
+        <v>3</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>126</v>
+      </c>
+      <c r="B86" s="3">
+        <v>64.040000000000006</v>
+      </c>
+      <c r="C86" s="3">
+        <v>217.45</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>127</v>
+      </c>
+      <c r="B87" s="3">
+        <v>64.22</v>
+      </c>
+      <c r="C87" s="3">
+        <v>211.04</v>
+      </c>
+      <c r="D87" s="1">
+        <v>3</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>128</v>
+      </c>
+      <c r="B88" s="3">
+        <v>66.209999999999994</v>
+      </c>
+      <c r="C88" s="3">
+        <v>227.38</v>
+      </c>
+      <c r="D88" s="1">
+        <v>3</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>130</v>
+      </c>
+      <c r="B89" s="3">
+        <v>64.069999999999993</v>
+      </c>
+      <c r="C89" s="3">
+        <v>226.17</v>
+      </c>
+      <c r="D89" s="1">
+        <v>3</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>131</v>
+      </c>
+      <c r="B90" s="3">
+        <v>66.39</v>
+      </c>
+      <c r="C90" s="3">
+        <v>226.05</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>133</v>
+      </c>
+      <c r="B91" s="3">
+        <v>75.3</v>
+      </c>
+      <c r="C91" s="3">
+        <v>289.48</v>
+      </c>
+      <c r="D91" s="1">
+        <v>3</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>134</v>
+      </c>
+      <c r="B92" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="C92" s="3">
+        <v>117.5</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>136</v>
+      </c>
+      <c r="B93" s="3">
+        <v>74.48</v>
+      </c>
+      <c r="C93" s="3">
+        <v>141.35</v>
+      </c>
+      <c r="D93" s="1">
+        <v>3</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>137</v>
+      </c>
+      <c r="B94" s="3">
+        <v>67.11</v>
+      </c>
+      <c r="C94" s="3">
+        <v>189.05</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>138</v>
+      </c>
+      <c r="B95" s="3">
+        <v>67.08</v>
+      </c>
+      <c r="C95" s="3">
+        <v>191</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>139</v>
+      </c>
+      <c r="B96" s="3">
+        <v>67.41</v>
+      </c>
+      <c r="C96" s="3">
+        <v>191</v>
+      </c>
+      <c r="D96" s="1">
+        <v>3</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>140</v>
+      </c>
+      <c r="B97" s="3">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="C97" s="3">
+        <v>235.25</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>141</v>
+      </c>
+      <c r="B98" s="3">
+        <v>67.08</v>
+      </c>
+      <c r="C98" s="3">
+        <v>191</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>142</v>
+      </c>
+      <c r="B99" s="3">
+        <v>67.09</v>
+      </c>
+      <c r="C99" s="3">
+        <v>189.2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>144</v>
+      </c>
+      <c r="B100" s="3">
+        <v>68.44</v>
+      </c>
+      <c r="C100" s="3">
+        <v>142.32</v>
+      </c>
+      <c r="D100" s="1">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>145</v>
+      </c>
+      <c r="B101" s="3">
+        <v>68.44</v>
+      </c>
+      <c r="C101" s="3">
+        <v>142.32</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>146</v>
+      </c>
+      <c r="B102" s="3">
+        <v>68.44</v>
+      </c>
+      <c r="C102" s="3">
+        <v>142.32</v>
+      </c>
+      <c r="D102" s="1">
+        <v>3</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>147</v>
+      </c>
+      <c r="B103" s="3">
+        <v>68.44</v>
+      </c>
+      <c r="C103" s="3">
+        <v>142.32</v>
+      </c>
+      <c r="D103" s="1">
+        <v>3</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>148</v>
+      </c>
+      <c r="B104" s="3">
+        <v>64.510000000000005</v>
+      </c>
+      <c r="C104" s="3">
+        <v>142.32</v>
+      </c>
+      <c r="D104" s="1">
+        <v>3</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>149</v>
+      </c>
+      <c r="B105" s="3">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="C105" s="3">
+        <v>189.29</v>
+      </c>
+      <c r="D105" s="1">
+        <v>3</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>150</v>
+      </c>
+      <c r="B106" s="3">
+        <v>75.040000000000006</v>
+      </c>
+      <c r="C106" s="3">
+        <v>297.20999999999998</v>
+      </c>
+      <c r="D106" s="1">
+        <v>3</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>151</v>
+      </c>
+      <c r="B107" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="C107" s="3">
+        <v>91.3</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>152</v>
+      </c>
+      <c r="B108" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="C108" s="3">
+        <v>91.3</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>153</v>
+      </c>
+      <c r="B109" s="3">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="C109" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>154</v>
+      </c>
+      <c r="B110" s="3">
+        <v>68.12</v>
+      </c>
+      <c r="C110" s="3">
+        <v>98.05</v>
+      </c>
+      <c r="D110" s="1">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>155</v>
+      </c>
+      <c r="B111" s="3">
+        <v>68.12</v>
+      </c>
+      <c r="C111" s="3">
+        <v>98.05</v>
+      </c>
+      <c r="D111" s="1">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>156</v>
+      </c>
+      <c r="B112" s="3">
+        <v>65</v>
+      </c>
+      <c r="C112" s="3">
+        <v>108.2</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>157</v>
+      </c>
+      <c r="B113" s="3">
+        <v>65</v>
+      </c>
+      <c r="C113" s="3">
+        <v>108.2</v>
+      </c>
+      <c r="D113" s="1">
+        <v>2</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>158</v>
+      </c>
+      <c r="B114" s="3">
+        <v>65</v>
+      </c>
+      <c r="C114" s="3">
+        <v>99.53</v>
+      </c>
+      <c r="D114" s="1">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>160</v>
+      </c>
+      <c r="B115" s="3">
+        <v>70</v>
+      </c>
+      <c r="C115" s="3">
+        <v>165.08</v>
+      </c>
+      <c r="D115" s="1">
+        <v>2</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>162</v>
+      </c>
+      <c r="B116" s="3">
+        <v>66.06</v>
+      </c>
+      <c r="C116" s="3">
+        <v>226.13</v>
+      </c>
+      <c r="D116" s="1">
+        <v>2</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>163</v>
+      </c>
+      <c r="B117" s="3">
+        <v>68.34</v>
+      </c>
+      <c r="C117" s="3">
+        <v>228.07</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>164</v>
+      </c>
+      <c r="B118" s="3">
+        <v>76.569999999999993</v>
+      </c>
+      <c r="C118" s="3">
+        <v>292.39999999999998</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>165</v>
+      </c>
+      <c r="B119" s="3">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="C119" s="3">
+        <v>276.25</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>166</v>
+      </c>
+      <c r="B120" s="3">
+        <v>65</v>
+      </c>
+      <c r="C120" s="3">
+        <v>227.3</v>
+      </c>
+      <c r="D120" s="1">
+        <v>2</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>167</v>
+      </c>
+      <c r="B121" s="3">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="C121" s="3">
+        <v>233.21</v>
+      </c>
+      <c r="D121" s="1">
+        <v>2</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>168</v>
+      </c>
+      <c r="B122" s="3">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="C122" s="3">
+        <v>233.21</v>
+      </c>
+      <c r="D122" s="1">
+        <v>2</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>169</v>
+      </c>
+      <c r="B123" s="3">
+        <v>66.06</v>
+      </c>
+      <c r="C123" s="3">
+        <v>222.45</v>
+      </c>
+      <c r="D123" s="1">
+        <v>2</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>170</v>
+      </c>
+      <c r="B124" s="3">
+        <v>64.25</v>
+      </c>
+      <c r="C124" s="3">
+        <v>247.25</v>
+      </c>
+      <c r="D124" s="1">
+        <v>2</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>172</v>
+      </c>
+      <c r="B125" s="3">
+        <v>69.25</v>
+      </c>
+      <c r="C125" s="3">
+        <v>116.57</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>179</v>
+      </c>
+      <c r="B126" s="3">
+        <v>65</v>
+      </c>
+      <c r="C126" s="3">
+        <v>99.27</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>180</v>
+      </c>
+      <c r="B127" s="3">
+        <v>69.44</v>
+      </c>
+      <c r="C127" s="3">
+        <v>104</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>181</v>
+      </c>
+      <c r="B128" s="3">
+        <v>69.44</v>
+      </c>
+      <c r="C128" s="3">
+        <v>101.24</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>184</v>
+      </c>
+      <c r="B129" s="3">
+        <v>72.28</v>
+      </c>
+      <c r="C129" s="3">
+        <v>101.46</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>185</v>
+      </c>
+      <c r="B130" s="3">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="C130" s="3">
+        <v>96.26</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>186</v>
+      </c>
+      <c r="B131" s="3">
+        <v>67.180000000000007</v>
+      </c>
+      <c r="C131" s="3">
+        <v>100.58</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>187</v>
+      </c>
+      <c r="B132" s="3">
+        <v>71.11</v>
+      </c>
+      <c r="C132" s="3">
+        <v>113.54</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>188</v>
+      </c>
+      <c r="B133" s="3">
+        <v>71.52</v>
+      </c>
+      <c r="C133" s="3">
+        <v>106.3</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>189</v>
+      </c>
+      <c r="B134" s="3">
+        <v>69.14</v>
+      </c>
+      <c r="C134" s="3">
+        <v>101.4</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>190</v>
+      </c>
+      <c r="B135" s="3">
+        <v>68.209999999999994</v>
+      </c>
+      <c r="C135" s="3">
+        <v>103.16</v>
+      </c>
+      <c r="D135" s="1">
+        <v>1</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>192</v>
+      </c>
+      <c r="B136" s="3">
+        <v>70.459999999999994</v>
+      </c>
+      <c r="C136" s="3">
+        <v>117.2</v>
+      </c>
+      <c r="D136" s="1">
+        <v>1</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>193</v>
+      </c>
+      <c r="B137" s="3">
+        <v>72.540000000000006</v>
+      </c>
+      <c r="C137" s="3">
+        <v>93.09</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>194</v>
+      </c>
+      <c r="B138" s="3">
+        <v>72.540000000000006</v>
+      </c>
+      <c r="C138" s="3">
+        <v>93.09</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>195</v>
+      </c>
+      <c r="B139" s="3">
+        <v>70.17</v>
+      </c>
+      <c r="C139" s="3">
+        <v>110.17</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>196</v>
+      </c>
+      <c r="B140" s="3">
+        <v>69.22</v>
+      </c>
+      <c r="C140" s="3">
+        <v>105.04</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>197</v>
+      </c>
+      <c r="B141" s="3">
+        <v>66.33</v>
+      </c>
+      <c r="C141" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="D141" s="1">
+        <v>1</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>198</v>
+      </c>
+      <c r="B142" s="3">
+        <v>69.52</v>
+      </c>
+      <c r="C142" s="3">
+        <v>96.51</v>
+      </c>
+      <c r="D142" s="1">
+        <v>1</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>199</v>
+      </c>
+      <c r="B143" s="3">
+        <v>72.11</v>
+      </c>
+      <c r="C143" s="3">
+        <v>101.04</v>
+      </c>
+      <c r="D143" s="1">
+        <v>1</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>200</v>
+      </c>
+      <c r="B144" s="3">
+        <v>70.28</v>
+      </c>
+      <c r="C144" s="3">
+        <v>100.49</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>201</v>
+      </c>
+      <c r="B145" s="3">
+        <v>69.209999999999994</v>
+      </c>
+      <c r="C145" s="3">
+        <v>99.06</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>202</v>
+      </c>
+      <c r="B146" s="3">
+        <v>67.36</v>
+      </c>
+      <c r="C146" s="3">
+        <v>85.04</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>203</v>
+      </c>
+      <c r="B147" s="3">
+        <v>67.36</v>
+      </c>
+      <c r="C147" s="3">
+        <v>85.04</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>205</v>
+      </c>
+      <c r="B148" s="3">
+        <v>68.2</v>
+      </c>
+      <c r="C148" s="3">
+        <v>93.2</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>208</v>
+      </c>
+      <c r="B149" s="3">
+        <v>72.03</v>
+      </c>
+      <c r="C149" s="3">
+        <v>97.03</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>211</v>
+      </c>
+      <c r="B150" s="3">
+        <v>65.41</v>
+      </c>
+      <c r="C150" s="3">
+        <v>100.57</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>212</v>
+      </c>
+      <c r="B151" s="3">
+        <v>68.239999999999995</v>
+      </c>
+      <c r="C151" s="3">
+        <v>104.16</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1</v>
+      </c>
+      <c r="E151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>213</v>
+      </c>
+      <c r="B152" s="3">
+        <v>67.28</v>
+      </c>
+      <c r="C152" s="3">
+        <v>106.24</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>215</v>
+      </c>
+      <c r="B153" s="3">
+        <v>69.540000000000006</v>
+      </c>
+      <c r="C153" s="3">
+        <v>90.45</v>
+      </c>
+      <c r="D153" s="1">
+        <v>1</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>216</v>
+      </c>
+      <c r="B154" s="3">
+        <v>69.540000000000006</v>
+      </c>
+      <c r="C154" s="3">
+        <v>90.45</v>
+      </c>
+      <c r="D154" s="1">
+        <v>1</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>217</v>
+      </c>
+      <c r="B155" s="3">
+        <v>67.08</v>
+      </c>
+      <c r="C155" s="3">
+        <v>87.51</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>218</v>
+      </c>
+      <c r="B156" s="3">
+        <v>65.459999999999994</v>
+      </c>
+      <c r="C156" s="3">
+        <v>95.06</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>221</v>
+      </c>
+      <c r="B157" s="3">
+        <v>69.069999999999993</v>
+      </c>
+      <c r="C157" s="3">
+        <v>102.04</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>223</v>
+      </c>
+      <c r="B158" s="3">
+        <v>69.180000000000007</v>
+      </c>
+      <c r="C158" s="3">
+        <v>143.27000000000001</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>224</v>
+      </c>
+      <c r="B159" s="3">
+        <v>69.56</v>
+      </c>
+      <c r="C159" s="3">
+        <v>142.28</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>226</v>
+      </c>
+      <c r="B160" s="3">
+        <v>72.48</v>
+      </c>
+      <c r="C160" s="3">
+        <v>137.25</v>
+      </c>
+      <c r="D160" s="1">
+        <v>1</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>228</v>
+      </c>
+      <c r="B161" s="3">
+        <v>72.150000000000006</v>
+      </c>
+      <c r="C161" s="3">
+        <v>141.06</v>
+      </c>
+      <c r="D161" s="1">
+        <v>1</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>235</v>
+      </c>
+      <c r="B162" s="3">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="C162" s="3">
+        <v>187.19</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>236</v>
+      </c>
+      <c r="B163" s="3">
+        <v>70.23</v>
+      </c>
+      <c r="C163" s="3">
+        <v>242.5</v>
+      </c>
+      <c r="D163" s="1">
+        <v>1</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>237</v>
+      </c>
+      <c r="B164" s="3">
+        <v>67.540000000000006</v>
+      </c>
+      <c r="C164" s="3">
+        <v>243.3</v>
+      </c>
+      <c r="D164" s="1">
+        <v>1</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>238</v>
+      </c>
+      <c r="B165" s="3">
+        <v>70.5</v>
+      </c>
+      <c r="C165" s="3">
+        <v>242.5</v>
+      </c>
+      <c r="D165" s="1">
+        <v>1</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>240</v>
+      </c>
+      <c r="B166" s="3">
+        <v>67.47</v>
+      </c>
+      <c r="C166" s="3">
+        <v>179.18</v>
+      </c>
+      <c r="D166" s="1">
+        <v>1</v>
+      </c>
+      <c r="E166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>241</v>
+      </c>
+      <c r="B167" s="3">
+        <v>72.03</v>
+      </c>
+      <c r="C167" s="3">
+        <v>196.53</v>
+      </c>
+      <c r="D167" s="1">
+        <v>1</v>
+      </c>
+      <c r="E167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>242</v>
+      </c>
+      <c r="B168" s="3">
+        <v>74.59</v>
+      </c>
+      <c r="C168" s="3">
+        <v>221.2</v>
+      </c>
+      <c r="D168" s="1">
+        <v>1</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>243</v>
+      </c>
+      <c r="B169" s="3">
+        <v>74.47</v>
+      </c>
+      <c r="C169" s="3">
+        <v>254.05</v>
+      </c>
+      <c r="D169" s="1">
+        <v>1</v>
+      </c>
+      <c r="E169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>244</v>
+      </c>
+      <c r="B170" s="3">
+        <v>68.42</v>
+      </c>
+      <c r="C170" s="3">
+        <v>193</v>
+      </c>
+      <c r="D170" s="1">
+        <v>1</v>
+      </c>
+      <c r="E170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>245</v>
+      </c>
+      <c r="B171" s="3">
+        <v>69.069999999999993</v>
+      </c>
+      <c r="C171" s="3">
+        <v>211.3</v>
+      </c>
+      <c r="D171" s="1">
+        <v>1</v>
+      </c>
+      <c r="E171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>246</v>
+      </c>
+      <c r="B172" s="3">
+        <v>74.319999999999993</v>
+      </c>
+      <c r="C172" s="3">
+        <v>247.15</v>
+      </c>
+      <c r="D172" s="1">
+        <v>1</v>
+      </c>
+      <c r="E172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>247</v>
+      </c>
+      <c r="B173" s="3">
+        <v>74.510000000000005</v>
+      </c>
+      <c r="C173" s="3">
+        <v>246.04</v>
+      </c>
+      <c r="D173" s="1">
+        <v>1</v>
+      </c>
+      <c r="E173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>249</v>
+      </c>
+      <c r="B174" s="3">
+        <v>71.2</v>
+      </c>
+      <c r="C174" s="3">
+        <v>221.27</v>
+      </c>
+      <c r="D174" s="1">
+        <v>1</v>
+      </c>
+      <c r="E174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>250</v>
+      </c>
+      <c r="B175" s="3">
+        <v>75.459999999999994</v>
+      </c>
+      <c r="C175" s="3">
+        <v>266.18</v>
+      </c>
+      <c r="D175" s="1">
+        <v>1</v>
+      </c>
+      <c r="E175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>251</v>
+      </c>
+      <c r="B176" s="3">
+        <v>70.19</v>
+      </c>
+      <c r="C176" s="3">
+        <v>223.12</v>
+      </c>
+      <c r="D176" s="1">
+        <v>1</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>253</v>
+      </c>
+      <c r="B177" s="3">
+        <v>66.03</v>
+      </c>
+      <c r="C177" s="3">
+        <v>223.5</v>
+      </c>
+      <c r="D177" s="1">
+        <v>1</v>
+      </c>
+      <c r="E177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>254</v>
+      </c>
+      <c r="B178" s="3">
+        <v>67.430000000000007</v>
+      </c>
+      <c r="C178" s="3">
+        <v>187.4</v>
+      </c>
+      <c r="D178" s="1">
+        <v>1</v>
+      </c>
+      <c r="E178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>255</v>
+      </c>
+      <c r="B179" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="C179" s="3">
+        <v>187.4</v>
+      </c>
+      <c r="D179" s="1">
+        <v>1</v>
+      </c>
+      <c r="E179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>256</v>
+      </c>
+      <c r="B180" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="C180" s="3">
+        <v>187.4</v>
+      </c>
+      <c r="D180" s="1">
+        <v>1</v>
+      </c>
+      <c r="E180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>257</v>
+      </c>
+      <c r="B181" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="C181" s="3">
+        <v>187.4</v>
+      </c>
+      <c r="D181" s="1">
+        <v>1</v>
+      </c>
+      <c r="E181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>258</v>
+      </c>
+      <c r="B182" s="3">
+        <v>67.11</v>
+      </c>
+      <c r="C182" s="3">
+        <v>186</v>
+      </c>
+      <c r="D182" s="1">
+        <v>1</v>
+      </c>
+      <c r="E182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>261</v>
+      </c>
+      <c r="B183" s="3">
+        <v>66.56</v>
+      </c>
+      <c r="C183" s="3">
+        <v>130.13</v>
+      </c>
+      <c r="D183" s="1">
+        <v>1</v>
+      </c>
+      <c r="E183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>262</v>
+      </c>
+      <c r="B184" s="3">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="C184" s="3">
+        <v>118.02</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1</v>
+      </c>
+      <c r="E184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>263</v>
+      </c>
+      <c r="B185" s="3">
+        <v>68.38</v>
+      </c>
+      <c r="C185" s="3">
+        <v>159.04</v>
+      </c>
+      <c r="D185" s="1">
+        <v>1</v>
+      </c>
+      <c r="E185" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4862D46-D45E-794D-A8B2-478EE0A3499F}">
+  <dimension ref="B2:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D21">
+    <sortCondition ref="B3:B21"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>